--- a/src/assets/file/grafiekLibraries.xlsx
+++ b/src/assets/file/grafiekLibraries.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16AF981-6087-49A6-9703-9781F3F163F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F15CFAA-EA0D-4DE7-A2D8-681C13197CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="300" windowWidth="21600" windowHeight="11385" xr2:uid="{019F062E-7306-4739-900D-4095D92F9B3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{019F062E-7306-4739-900D-4095D92F9B3A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="GrafiekLibraries" sheetId="1" r:id="rId1"/>
+    <sheet name="GebruikerstestResultaat" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="161">
   <si>
     <t>Library</t>
   </si>
@@ -387,6 +388,138 @@
   </si>
   <si>
     <t>T9</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Gemakkelijk</t>
+  </si>
+  <si>
+    <t>Laptop/ Desktop</t>
+  </si>
+  <si>
+    <t>Technisch</t>
+  </si>
+  <si>
+    <t>Bachelor degree</t>
+  </si>
+  <si>
+    <t>36 - 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebruik van eenheden, zoals mg bij medicatie, is heel bepalend voor mijn keuze geweest of een grafiek handig is of niet. </t>
+  </si>
+  <si>
+    <t>Moeilijk</t>
+  </si>
+  <si>
+    <t>Geen van de bovenstaande</t>
+  </si>
+  <si>
+    <t>Master degree</t>
+  </si>
+  <si>
+    <t>26 - 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinatie van 1 en accuratie van 2, nr 5, en combinatie van 7 en de punten op de lijn van 8 lijkt mij het fijnst en meest gebruiksvriendelijk. Met daarbij wel de pop-up met data als je met je cursor over de grafiek heen gaat. </t>
+  </si>
+  <si>
+    <t>Technisch,Medisch,User Experience</t>
+  </si>
+  <si>
+    <t>Middelbaar onderwijs</t>
+  </si>
+  <si>
+    <t>19 - 25</t>
+  </si>
+  <si>
+    <t>Technisch,Medisch</t>
+  </si>
+  <si>
+    <t>Het is niet duidelijk dat de medicatiegrafieken bij de epilepsieaanvallengrafieken horen.</t>
+  </si>
+  <si>
+    <t>Neutraal</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Apexcharts.js tonen niet duidelijk de meetpunten op de lijnen. Legenda van 2,5,8 is makkelijker te zien, maar mist een manier voor verschuiven/zoomen indien er veel datapunten zijn. Set 3,6,9 mist mouse-overs om makkelijk de data te zien op een punt.</t>
+  </si>
+  <si>
+    <t>Een combinatie van set 1/4/7 en 2/5/8 zou top zijn. Bij set 1/4/7 is het erg gemakkelijk dat wanneer je met de muis op een lijn zit er op de assen wordt aangegeven waar je staat. Dit mist helaas bij 2/5/8. Deze laatste set voelt meer gedetaileerd.</t>
+  </si>
+  <si>
+    <t>Medisch</t>
+  </si>
+  <si>
+    <t>Geen</t>
+  </si>
+  <si>
+    <t>Ja maar zal ze persoonlijk toelichten</t>
+  </si>
+  <si>
+    <t>Mobiel/ Tablet</t>
+  </si>
+  <si>
+    <t>De 'snap' (hover van een grafiekpunt) van set {1,4,7} is het beste, maar bij grafiek 4 geeft die ook inzage in de afwijking (groene lijn). De grafiek zou wat mij betreft inzichtelijker zijn als alleen informatie over de blauwe lijn wordt getoond als je over de grafiek heen hovert.</t>
+  </si>
+  <si>
+    <t>46 - 55</t>
+  </si>
+  <si>
+    <t>Heeft u nog op- of aanmerkingen voor de grafieken?</t>
+  </si>
+  <si>
+    <t>leeftijd</t>
+  </si>
+  <si>
+    <t>Q35</t>
+  </si>
+  <si>
+    <t>Q34_3</t>
+  </si>
+  <si>
+    <t>Q34_2</t>
+  </si>
+  <si>
+    <t>Q34_1</t>
+  </si>
+  <si>
+    <t>Q33</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Achtergrond</t>
+  </si>
+  <si>
+    <t>Apparaat</t>
+  </si>
+  <si>
+    <t>Printen</t>
+  </si>
+  <si>
+    <t>Meest tevreden</t>
+  </si>
+  <si>
+    <t>Opleidingsniveau</t>
   </si>
 </sst>
 </file>
@@ -399,7 +532,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,13 +567,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -492,13 +637,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -547,14 +693,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Procent" xfId="3" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard 2" xfId="4" xr:uid="{59C878EF-FEEE-4F90-BCFC-EC245F416CA7}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <name val="Times New Roman"/>
@@ -844,27 +1032,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CF807DFA-B709-44E8-B343-A50E0E2DC668}" name="Tabel2" displayName="Tabel2" ref="A1:O16" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CF807DFA-B709-44E8-B343-A50E0E2DC668}" name="Tabel2" displayName="Tabel2" ref="A1:O16" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A1:O16" xr:uid="{CF807DFA-B709-44E8-B343-A50E0E2DC668}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O16">
     <sortCondition ref="E1:E16"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{8A89DC9F-2B47-4049-9B9D-5EC299DDEC0C}" name="Library" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{FF4CBDD9-F4C1-4736-ADE6-8EE058A97C5D}" name="Grootte" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{341113FF-B20A-494C-BF7E-8467D66F05D5}" name="Voordeel" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{0AB9BB44-1B93-41FF-AA93-B0AE66A8FC85}" name="Nadeel" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{2AAC157A-23D0-4F82-AF0F-4A6D4DE6751F}" name="Voldoet niet aan" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{9648C5A1-F07E-4E1E-BBA6-91C22DD8AD80}" name="Typescript" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{DEEC29F1-1AAC-457C-A16C-7BB3BB45BD2E}" name="JavaScript" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{DC09A431-399F-4D54-A74D-38F10D6A81E4}" name="Ander taal" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{CCF6B01D-1E71-499C-A61D-9E1992A1640E}" name="Licentie" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{DC111839-BB94-4A56-8BDB-D2D0A092C0DE}" name="Kosten (jaar)" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{C68961C1-943D-4713-AECE-17F3B2955168}" name="Laatste release" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{DC5F368C-EC0D-47EB-874C-C9028DDA271F}" name="Downloads (Week)" dataDxfId="3" dataCellStyle="Komma"/>
-    <tableColumn id="8" xr3:uid="{E77DDFD7-4962-473D-8BDF-489917D55FF4}" name="Stars" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{B2E36F32-726D-4C1A-BEB2-1BC718656959}" name="Forks" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{44923379-1B4F-4051-B4E3-E164E8995BEE}" name="Link" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8A89DC9F-2B47-4049-9B9D-5EC299DDEC0C}" name="Library" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{FF4CBDD9-F4C1-4736-ADE6-8EE058A97C5D}" name="Grootte" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{341113FF-B20A-494C-BF7E-8467D66F05D5}" name="Voordeel" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{0AB9BB44-1B93-41FF-AA93-B0AE66A8FC85}" name="Nadeel" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{2AAC157A-23D0-4F82-AF0F-4A6D4DE6751F}" name="Voldoet niet aan" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{9648C5A1-F07E-4E1E-BBA6-91C22DD8AD80}" name="Typescript" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{DEEC29F1-1AAC-457C-A16C-7BB3BB45BD2E}" name="JavaScript" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{DC09A431-399F-4D54-A74D-38F10D6A81E4}" name="Ander taal" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{CCF6B01D-1E71-499C-A61D-9E1992A1640E}" name="Licentie" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{DC111839-BB94-4A56-8BDB-D2D0A092C0DE}" name="Kosten (jaar)" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{C68961C1-943D-4713-AECE-17F3B2955168}" name="Laatste release" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{DC5F368C-EC0D-47EB-874C-C9028DDA271F}" name="Downloads (Week)" dataDxfId="11" dataCellStyle="Komma"/>
+    <tableColumn id="8" xr3:uid="{E77DDFD7-4962-473D-8BDF-489917D55FF4}" name="Stars" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{B2E36F32-726D-4C1A-BEB2-1BC718656959}" name="Forks" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{44923379-1B4F-4051-B4E3-E164E8995BEE}" name="Link" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4EAE0AD-3B3B-4895-AD3F-37B8ECAB23D4}" name="Tabel4" displayName="Tabel4" ref="A2:J17" totalsRowShown="0" headerRowDxfId="7" headerRowCellStyle="Standaard 2" dataCellStyle="Standaard 2">
+  <autoFilter ref="A2:J17" xr:uid="{E9277450-7108-4483-93C6-AAC30C89A962}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J17">
+    <sortCondition descending="1" ref="G2:G17"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{C14C5310-44E0-4DF9-86B6-28DAA7CFADDA}" name="leeftijd" dataDxfId="6" dataCellStyle="Standaard 2"/>
+    <tableColumn id="2" xr3:uid="{2E398613-51BA-46ED-9024-8A786BA96576}" name="Opleidingsniveau" dataDxfId="5" dataCellStyle="Standaard 2"/>
+    <tableColumn id="3" xr3:uid="{36DEE8F8-BDBF-4C44-84EC-3EDF8DD926AF}" name="Achtergrond" dataDxfId="4" dataCellStyle="Standaard 2"/>
+    <tableColumn id="4" xr3:uid="{7F43B962-D1B7-4772-97D5-EE2C27E0F72E}" name="Apparaat" dataDxfId="3" dataCellStyle="Standaard 2"/>
+    <tableColumn id="5" xr3:uid="{4CC8271D-0F66-4340-936A-78FD1AC1323E}" name="Printen" dataDxfId="2" dataCellStyle="Standaard 2"/>
+    <tableColumn id="9" xr3:uid="{1817E6A4-A27D-4A4C-97EA-F7A864E3F7DA}" name="Meest tevreden" dataDxfId="1" dataCellStyle="Standaard 2"/>
+    <tableColumn id="10" xr3:uid="{FFEC2A2B-1356-4F39-A32E-9F665B1BB887}" name="Apexcharts.js" dataCellStyle="Standaard 2"/>
+    <tableColumn id="11" xr3:uid="{37C7DFBC-38E7-450D-A7F2-6F3BCEE9A4A7}" name="Chart.js" dataCellStyle="Standaard 2"/>
+    <tableColumn id="12" xr3:uid="{FAE784B8-CF3D-410E-8D1F-5758C9A9C9F9}" name="D3.js" dataCellStyle="Standaard 2"/>
+    <tableColumn id="13" xr3:uid="{480A786C-C81A-40C5-A7E1-4921580D0293}" name="Heeft u nog op- of aanmerkingen voor de grafieken?" dataDxfId="0" dataCellStyle="Standaard 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1169,9 +1379,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD1E7EB-4FA8-4F11-9BFE-3D751D79B0EB}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D22" sqref="D22"/>
+      <selection pane="topRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,4 +2196,594 @@
     <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E33A579-A82E-4B48-A2DA-6351047995C5}">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="124.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="32">
+        <v>9</v>
+      </c>
+      <c r="H3" s="32">
+        <v>4</v>
+      </c>
+      <c r="I3" s="32">
+        <v>4</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="32">
+        <v>9</v>
+      </c>
+      <c r="H4" s="32">
+        <v>7</v>
+      </c>
+      <c r="I4" s="32">
+        <v>4</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="32">
+        <v>8</v>
+      </c>
+      <c r="H5" s="32">
+        <v>7</v>
+      </c>
+      <c r="I5" s="32">
+        <v>7</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="32">
+        <v>8</v>
+      </c>
+      <c r="H6" s="32">
+        <v>6</v>
+      </c>
+      <c r="I6" s="32">
+        <v>4</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="32">
+        <v>8</v>
+      </c>
+      <c r="H7" s="32">
+        <v>7</v>
+      </c>
+      <c r="I7" s="32">
+        <v>5</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="32">
+        <v>8</v>
+      </c>
+      <c r="H8" s="32">
+        <v>7</v>
+      </c>
+      <c r="I8" s="32">
+        <v>6</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="32">
+        <v>8</v>
+      </c>
+      <c r="H9" s="32">
+        <v>8</v>
+      </c>
+      <c r="I9" s="32">
+        <v>6</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="32">
+        <v>8</v>
+      </c>
+      <c r="H10" s="32">
+        <v>4</v>
+      </c>
+      <c r="I10" s="32">
+        <v>6</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="32">
+        <v>7</v>
+      </c>
+      <c r="H11" s="32">
+        <v>6</v>
+      </c>
+      <c r="I11" s="32">
+        <v>5</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="32">
+        <v>7</v>
+      </c>
+      <c r="H12" s="32">
+        <v>8</v>
+      </c>
+      <c r="I12" s="32">
+        <v>2</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="32">
+        <v>7</v>
+      </c>
+      <c r="H13" s="32">
+        <v>8</v>
+      </c>
+      <c r="I13" s="32">
+        <v>6</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="32">
+        <v>7</v>
+      </c>
+      <c r="H14" s="32">
+        <v>7</v>
+      </c>
+      <c r="I14" s="32">
+        <v>7</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="32">
+        <v>7</v>
+      </c>
+      <c r="H15" s="32">
+        <v>5</v>
+      </c>
+      <c r="I15" s="32">
+        <v>4</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="32">
+        <v>6</v>
+      </c>
+      <c r="H16" s="32">
+        <v>6</v>
+      </c>
+      <c r="I16" s="32">
+        <v>6</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="32">
+        <v>2</v>
+      </c>
+      <c r="H17" s="32">
+        <v>9</v>
+      </c>
+      <c r="I17" s="32">
+        <v>3</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>